--- a/Data_file/import_product_BSO.xlsx
+++ b/Data_file/import_product_BSO.xlsx
@@ -433,18 +433,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -457,16 +451,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,13 +477,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -509,7 +503,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -709,17 +702,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -746,10 +739,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -988,12 +981,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1270,7 +1263,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1297,10 +1290,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1542,17 +1535,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z1859"/>
+  <dimension ref="A1:Z1860"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="57" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4922" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1641" style="1" customWidth="1"/>
+    <col min="1" max="1" width="65.0078" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8516" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.6719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6484" style="1" customWidth="1"/>
     <col min="7" max="10" width="8.85156" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.3516" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
@@ -59173,6 +59166,34 @@
       <c r="Y1859" s="3"/>
       <c r="Z1859" s="3"/>
     </row>
+    <row r="1860" ht="13.55" customHeight="1">
+      <c r="A1860" s="3"/>
+      <c r="B1860" s="3"/>
+      <c r="C1860" s="3"/>
+      <c r="D1860" s="3"/>
+      <c r="E1860" s="3"/>
+      <c r="F1860" s="3"/>
+      <c r="G1860" s="3"/>
+      <c r="H1860" s="3"/>
+      <c r="I1860" s="3"/>
+      <c r="J1860" s="3"/>
+      <c r="K1860" s="3"/>
+      <c r="L1860" s="3"/>
+      <c r="M1860" s="3"/>
+      <c r="N1860" s="3"/>
+      <c r="O1860" s="3"/>
+      <c r="P1860" s="3"/>
+      <c r="Q1860" s="3"/>
+      <c r="R1860" s="3"/>
+      <c r="S1860" s="3"/>
+      <c r="T1860" s="3"/>
+      <c r="U1860" s="3"/>
+      <c r="V1860" s="3"/>
+      <c r="W1860" s="3"/>
+      <c r="X1860" s="3"/>
+      <c r="Y1860" s="3"/>
+      <c r="Z1860" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
